--- a/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:43:59+00:00</t>
+    <t>2025-07-16T14:53:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:53:50+00:00</t>
+    <t>2025-07-16T14:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:55:49+00:00</t>
+    <t>2025-07-16T15:00:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T15:00:53+00:00</t>
+    <t>2025-07-16T15:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-pages/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T15:05:19+00:00</t>
+    <t>2025-07-16T15:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
